--- a/Story/Balancing.xlsx
+++ b/Story/Balancing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-GitKraken\Death is not the End\death-is-not-the-end\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6675667D-3EAA-48E0-B487-F10D286AAA3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CE2BE5-2C39-4121-B056-6A3C30310C90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Speed</t>
   </si>
@@ -129,13 +129,37 @@
   </si>
   <si>
     <t>differs per weapon</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Ability</t>
+  </si>
+  <si>
+    <t>Superjump</t>
+  </si>
+  <si>
+    <t>Bloodrush</t>
+  </si>
+  <si>
+    <t>Explaination</t>
+  </si>
+  <si>
+    <t>Movementspeed up to 30000, damage up to 50 for 3 seconds, every 3 succesful hits</t>
+  </si>
+  <si>
+    <t>Super high jump with damage up to 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -148,6 +172,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -179,6 +209,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -495,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -549,9 +582,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:L4"/>
+  <dimension ref="B2:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -564,7 +597,7 @@
     <col min="12" max="12" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
@@ -574,46 +607,55 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I3" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>4</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -623,28 +665,84 @@
       <c r="D4" s="5">
         <v>10</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5">
+      <c r="L4" s="5">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="O4">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>25000</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>0.6</v>
+      </c>
+      <c r="O5">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/Story/Balancing.xlsx
+++ b/Story/Balancing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-GitKraken\Death is not the End\death-is-not-the-end\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CE2BE5-2C39-4121-B056-6A3C30310C90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E25418E-A915-4D12-82AC-9966B32B9D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="118">
   <si>
     <t>Speed</t>
   </si>
@@ -95,27 +95,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>don‘t</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>yet</t>
-  </si>
-  <si>
     <t>Same</t>
   </si>
   <si>
@@ -153,13 +132,265 @@
   </si>
   <si>
     <t>Super high jump with damage up to 20</t>
+  </si>
+  <si>
+    <t>Weapon Name</t>
+  </si>
+  <si>
+    <t>Wooden Sword</t>
+  </si>
+  <si>
+    <t>Wooden Lance</t>
+  </si>
+  <si>
+    <t>Wooden Longsword</t>
+  </si>
+  <si>
+    <t>Wooden Bow</t>
+  </si>
+  <si>
+    <t>Wooden Dagger</t>
+  </si>
+  <si>
+    <t>Wooden Weapons</t>
+  </si>
+  <si>
+    <t>Stone Weapons</t>
+  </si>
+  <si>
+    <t>Stone Sword</t>
+  </si>
+  <si>
+    <t>Stone Longsword</t>
+  </si>
+  <si>
+    <t>Stone Dagger</t>
+  </si>
+  <si>
+    <t>Stone Lance</t>
+  </si>
+  <si>
+    <t>Stone Bow (not out of Stone empowered with Stone)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Metal Weapons</t>
+  </si>
+  <si>
+    <t>Metal Sword</t>
+  </si>
+  <si>
+    <t>Metal Longsword</t>
+  </si>
+  <si>
+    <t>Metal Dagger</t>
+  </si>
+  <si>
+    <t>Metal Lance</t>
+  </si>
+  <si>
+    <t>Metal Bow (look above)</t>
+  </si>
+  <si>
+    <t>Rusty Weapons</t>
+  </si>
+  <si>
+    <t>Rusty Sword</t>
+  </si>
+  <si>
+    <t>Rusty Longsword</t>
+  </si>
+  <si>
+    <t>Rusty Dagger</t>
+  </si>
+  <si>
+    <t>Rusty Lance</t>
+  </si>
+  <si>
+    <t>Rusty Bow (look above)</t>
+  </si>
+  <si>
+    <t>Movement Speed (when carrying weapon)</t>
+  </si>
+  <si>
+    <t>Ability (special attack)</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>whirl attack</t>
+  </si>
+  <si>
+    <t>earthshatter</t>
+  </si>
+  <si>
+    <t>every three hits</t>
+  </si>
+  <si>
+    <t>every 15 secs</t>
+  </si>
+  <si>
+    <t>backstitch</t>
+  </si>
+  <si>
+    <t>double hit</t>
+  </si>
+  <si>
+    <t>arrows</t>
+  </si>
+  <si>
+    <t>no cooldown</t>
+  </si>
+  <si>
+    <t>other arrows cannot be used</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>a hit in the back does double damage</t>
+  </si>
+  <si>
+    <t>triple hit</t>
+  </si>
+  <si>
+    <t>every 12 secs</t>
+  </si>
+  <si>
+    <t>every three hits or every 5 seconds</t>
+  </si>
+  <si>
+    <t>Wands</t>
+  </si>
+  <si>
+    <t>Magic Wand</t>
+  </si>
+  <si>
+    <t>Follow up</t>
+  </si>
+  <si>
+    <t>Projectile Speed</t>
+  </si>
+  <si>
+    <t>Wand</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Type of Weapon</t>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>Long-/Shortranged</t>
+  </si>
+  <si>
+    <t>Target-Seeking</t>
+  </si>
+  <si>
+    <t>Jumpattack</t>
+  </si>
+  <si>
+    <t>Explanation Ability</t>
+  </si>
+  <si>
+    <t>a slash around the whole body</t>
+  </si>
+  <si>
+    <t>stun for 0,5 seconds</t>
+  </si>
+  <si>
+    <t>every fifth hit</t>
+  </si>
+  <si>
+    <t>pricks twice in the same time (Attack Speed)</t>
+  </si>
+  <si>
+    <t>Attack Speed (How many attacks in one second)</t>
+  </si>
+  <si>
+    <t>Damag (multiplier with Base Dmg)</t>
+  </si>
+  <si>
+    <t>Cooldwon Ability</t>
+  </si>
+  <si>
+    <t>Arrows have different effects and damage</t>
+  </si>
+  <si>
+    <t>every fifth hit pricks three times</t>
+  </si>
+  <si>
+    <t>attack Speed times 1,5 and three hits</t>
+  </si>
+  <si>
+    <t>Movement Speed decreased by 2000 (if not under 4000 already)</t>
+  </si>
+  <si>
+    <t>5 dps for two seconds</t>
+  </si>
+  <si>
+    <t>every 8 seconds</t>
+  </si>
+  <si>
+    <t>a jump over the enemy sticking the wand into its highest point</t>
+  </si>
+  <si>
+    <t>Melee Wand</t>
+  </si>
+  <si>
+    <t>Special Weapons</t>
+  </si>
+  <si>
+    <t>Trident</t>
+  </si>
+  <si>
+    <t>Scythe</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>Longranged Melee</t>
+  </si>
+  <si>
+    <t>Helper</t>
+  </si>
+  <si>
+    <t>Spawn a watermonster fighting on your side</t>
+  </si>
+  <si>
+    <t>when killing an enemy the 60 second cooldown resets</t>
+  </si>
+  <si>
+    <t>Spawn a undead creature</t>
+  </si>
+  <si>
+    <t>Arsonist</t>
+  </si>
+  <si>
+    <t>ignite an enemy with 10 dps for five seconds (takes 0,8 seconds)</t>
+  </si>
+  <si>
+    <t>Bumerang</t>
+  </si>
+  <si>
+    <t>Double-Trouble</t>
+  </si>
+  <si>
+    <t>its a bumerang…what do you think will happen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -175,6 +406,19 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -200,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -212,6 +456,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -528,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -567,7 +814,7 @@
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -585,7 +832,7 @@
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -608,16 +855,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -626,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>9</v>
@@ -672,10 +919,10 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>14</v>
@@ -701,7 +948,7 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>25000</v>
@@ -716,19 +963,22 @@
         <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>16</v>
@@ -805,40 +1055,850 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>22000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0.8</v>
+      </c>
+      <c r="F6">
+        <v>18000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>24000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1.3</v>
+      </c>
+      <c r="F8">
+        <v>23000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.7</v>
+      </c>
+      <c r="F9">
+        <v>22000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>21000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>0.8</v>
+      </c>
+      <c r="F13">
+        <v>17000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1.5</v>
+      </c>
+      <c r="F14">
+        <v>23000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>1.3</v>
+      </c>
+      <c r="F15">
+        <v>22000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0.7</v>
+      </c>
+      <c r="F16">
+        <v>21000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>0.7</v>
+      </c>
+      <c r="F19">
+        <v>18000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>14000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>1.2</v>
+      </c>
+      <c r="F21">
+        <v>20000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>19000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>0.4</v>
+      </c>
+      <c r="F23">
+        <v>18000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F26">
+        <v>20000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>0.8</v>
+      </c>
+      <c r="F27">
+        <v>16000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>1.8</v>
+      </c>
+      <c r="F28">
+        <v>22000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>1.3</v>
+      </c>
+      <c r="F29">
+        <v>21000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>0.7</v>
+      </c>
+      <c r="F30">
+        <v>20000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>0.3</v>
+      </c>
+      <c r="F33">
+        <v>19000</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>19000</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>18000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>0.9</v>
+      </c>
+      <c r="F38">
+        <v>22000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" t="s">
+        <v>111</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>0.7</v>
+      </c>
+      <c r="F39">
+        <v>23000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="F40">
+        <v>20000</v>
+      </c>
+      <c r="G40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+      <c r="J40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>0.2</v>
+      </c>
+      <c r="F41">
+        <v>20000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
@@ -858,10 +1918,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -886,10 +1946,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Story/Balancing.xlsx
+++ b/Story/Balancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-GitKraken\Death is not the End\death-is-not-the-end\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E25418E-A915-4D12-82AC-9966B32B9D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB39F25-0227-4F5D-B2DD-DBBC545828EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="151">
   <si>
     <t>Speed</t>
   </si>
@@ -239,18 +239,12 @@
     <t>double hit</t>
   </si>
   <si>
-    <t>arrows</t>
-  </si>
-  <si>
     <t>no cooldown</t>
   </si>
   <si>
     <t>other arrows cannot be used</t>
   </si>
   <si>
-    <t>Arrow</t>
-  </si>
-  <si>
     <t>a hit in the back does double damage</t>
   </si>
   <si>
@@ -384,6 +378,111 @@
   </si>
   <si>
     <t>its a bumerang…what do you think will happen</t>
+  </si>
+  <si>
+    <t>Saber</t>
+  </si>
+  <si>
+    <t>Engraver</t>
+  </si>
+  <si>
+    <t>every fouth hit</t>
+  </si>
+  <si>
+    <t>a frontal stab</t>
+  </si>
+  <si>
+    <t>Brass Knuckles</t>
+  </si>
+  <si>
+    <t>Uppercut</t>
+  </si>
+  <si>
+    <t>a vertikal hit which stuns enemys for 0,8 seconds</t>
+  </si>
+  <si>
+    <t>every 4 seconds</t>
+  </si>
+  <si>
+    <t>Fire Sword</t>
+  </si>
+  <si>
+    <t>Ice Sword</t>
+  </si>
+  <si>
+    <t>Elemental Weapons</t>
+  </si>
+  <si>
+    <t>Electric Sword</t>
+  </si>
+  <si>
+    <t>Poisonous Sword</t>
+  </si>
+  <si>
+    <t>Magical Sword</t>
+  </si>
+  <si>
+    <t>10 dps over 5 seconds</t>
+  </si>
+  <si>
+    <t>Freeze</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Stun for 1 second</t>
+  </si>
+  <si>
+    <t>Slow of 99% for 0,5 seconds and movement speed decrease of 2000 (if not under 4000 already) for 3 seconds</t>
+  </si>
+  <si>
+    <t>Viper</t>
+  </si>
+  <si>
+    <t>20 dps for one second and a movement speed decrese of 4000 (if not under 4000 alredy)</t>
+  </si>
+  <si>
+    <t>Magical Selection</t>
+  </si>
+  <si>
+    <t>a random effect of the elemental swords is used</t>
+  </si>
+  <si>
+    <t>Magical Bow</t>
+  </si>
+  <si>
+    <t>Arrow Selection</t>
+  </si>
+  <si>
+    <t>Arrows</t>
+  </si>
+  <si>
+    <t>Types of Arrows</t>
+  </si>
+  <si>
+    <t>Fire Arrow</t>
+  </si>
+  <si>
+    <t>Ice Arrow</t>
+  </si>
+  <si>
+    <t>Electric Arrow</t>
+  </si>
+  <si>
+    <t>Poisonous Arrow</t>
+  </si>
+  <si>
+    <t>a random effect of the elemental arrows is used (but just magical arrows can be used)</t>
+  </si>
+  <si>
+    <t>Magical Arrows</t>
+  </si>
+  <si>
+    <t>Ammo</t>
+  </si>
+  <si>
+    <t>Bow</t>
   </si>
 </sst>
 </file>
@@ -1055,11 +1154,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1068,13 +1165,13 @@
         <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
@@ -1083,13 +1180,13 @@
         <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1108,7 +1205,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1137,7 +1234,7 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1166,7 +1263,7 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1195,7 +1292,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1224,7 +1321,7 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1236,13 +1333,13 @@
         <v>22000</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="H9" t="s">
         <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9">
         <v>20000</v>
@@ -1258,7 +1355,7 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1273,7 +1370,7 @@
         <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
         <v>65</v>
@@ -1287,7 +1384,7 @@
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1302,7 +1399,7 @@
         <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
         <v>66</v>
@@ -1316,7 +1413,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1331,7 +1428,7 @@
         <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
         <v>62</v>
@@ -1345,7 +1442,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1360,10 +1457,10 @@
         <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
         <v>62</v>
@@ -1374,7 +1471,7 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1386,13 +1483,13 @@
         <v>21000</v>
       </c>
       <c r="G16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
         <v>69</v>
-      </c>
-      <c r="H16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" t="s">
-        <v>70</v>
       </c>
       <c r="J16">
         <v>25000</v>
@@ -1408,7 +1505,7 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1420,6 +1517,9 @@
         <v>18000</v>
       </c>
       <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
         <v>62</v>
       </c>
       <c r="I19" t="s">
@@ -1434,7 +1534,7 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -1446,6 +1546,9 @@
         <v>14000</v>
       </c>
       <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
         <v>62</v>
       </c>
       <c r="I20" t="s">
@@ -1460,7 +1563,7 @@
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1472,6 +1575,9 @@
         <v>20000</v>
       </c>
       <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
         <v>62</v>
       </c>
       <c r="I21" t="s">
@@ -1486,7 +1592,7 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -1498,6 +1604,9 @@
         <v>19000</v>
       </c>
       <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
         <v>62</v>
       </c>
       <c r="I22" t="s">
@@ -1512,7 +1621,7 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -1524,6 +1633,9 @@
         <v>18000</v>
       </c>
       <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
         <v>62</v>
       </c>
       <c r="I23" t="s">
@@ -1543,7 +1655,7 @@
         <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <v>10</v>
@@ -1558,10 +1670,10 @@
         <v>63</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s">
         <v>62</v>
@@ -1572,7 +1684,7 @@
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27">
         <v>14</v>
@@ -1587,10 +1699,10 @@
         <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s">
         <v>62</v>
@@ -1601,7 +1713,7 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -1616,7 +1728,7 @@
         <v>67</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s">
         <v>62</v>
@@ -1630,7 +1742,7 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -1642,13 +1754,13 @@
         <v>21000</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J29" t="s">
         <v>62</v>
@@ -1659,7 +1771,7 @@
         <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30">
         <v>12</v>
@@ -1671,13 +1783,13 @@
         <v>20000</v>
       </c>
       <c r="G30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" t="s">
         <v>69</v>
-      </c>
-      <c r="H30" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" t="s">
-        <v>70</v>
       </c>
       <c r="J30">
         <v>30000</v>
@@ -1685,15 +1797,15 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -1705,10 +1817,10 @@
         <v>19000</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I33" t="s">
         <v>62</v>
@@ -1719,10 +1831,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34">
         <v>15</v>
@@ -1734,10 +1846,10 @@
         <v>19000</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I34" t="s">
         <v>62</v>
@@ -1748,10 +1860,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -1763,13 +1875,13 @@
         <v>18000</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J35" t="s">
         <v>62</v>
@@ -1777,15 +1889,15 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38">
         <v>11</v>
@@ -1797,13 +1909,13 @@
         <v>22000</v>
       </c>
       <c r="G38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" t="s">
         <v>109</v>
-      </c>
-      <c r="H38" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" t="s">
-        <v>111</v>
       </c>
       <c r="J38" t="s">
         <v>62</v>
@@ -1811,10 +1923,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
         <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>108</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -1826,13 +1938,13 @@
         <v>23000</v>
       </c>
       <c r="G39" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" t="s">
         <v>109</v>
-      </c>
-      <c r="H39" t="s">
-        <v>112</v>
-      </c>
-      <c r="I39" t="s">
-        <v>111</v>
       </c>
       <c r="J39" t="s">
         <v>62</v>
@@ -1840,10 +1952,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1855,10 +1967,10 @@
         <v>20000</v>
       </c>
       <c r="G40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I40" t="s">
         <v>62</v>
@@ -1869,10 +1981,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41">
         <v>7</v>
@@ -1884,16 +1996,403 @@
         <v>20000</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I41" t="s">
         <v>62</v>
       </c>
       <c r="J41">
         <v>20000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>21000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" t="s">
+        <v>118</v>
+      </c>
+      <c r="J42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>1.8</v>
+      </c>
+      <c r="F43">
+        <v>25000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>121</v>
+      </c>
+      <c r="H43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" t="s">
+        <v>123</v>
+      </c>
+      <c r="J43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>1.2</v>
+      </c>
+      <c r="F46">
+        <v>20000</v>
+      </c>
+      <c r="G46" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s">
+        <v>130</v>
+      </c>
+      <c r="I46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>1.2</v>
+      </c>
+      <c r="F47">
+        <v>20000</v>
+      </c>
+      <c r="G47" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>1.2</v>
+      </c>
+      <c r="F48">
+        <v>20000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" t="s">
+        <v>133</v>
+      </c>
+      <c r="I48" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>1.2</v>
+      </c>
+      <c r="F49">
+        <v>20000</v>
+      </c>
+      <c r="G49" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" t="s">
+        <v>136</v>
+      </c>
+      <c r="I49" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>1.5</v>
+      </c>
+      <c r="F50">
+        <v>20000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>137</v>
+      </c>
+      <c r="H50" t="s">
+        <v>138</v>
+      </c>
+      <c r="I50" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>20000</v>
+      </c>
+      <c r="G51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" t="s">
+        <v>147</v>
+      </c>
+      <c r="I51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54">
+        <v>1.4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s">
+        <v>130</v>
+      </c>
+      <c r="I54" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55">
+        <v>1.2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55" t="s">
+        <v>134</v>
+      </c>
+      <c r="I55" t="s">
+        <v>62</v>
+      </c>
+      <c r="J55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56">
+        <v>1.3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" t="s">
+        <v>133</v>
+      </c>
+      <c r="I56" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57">
+        <v>1.5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" t="s">
+        <v>136</v>
+      </c>
+      <c r="I57" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" t="s">
+        <v>147</v>
+      </c>
+      <c r="I58" t="s">
+        <v>62</v>
+      </c>
+      <c r="J58" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Story/Balancing.xlsx
+++ b/Story/Balancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-GitKraken\Death is not the End\death-is-not-the-end\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB39F25-0227-4F5D-B2DD-DBBC545828EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9E39B1-2DDE-44E6-AD15-A40445173ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="152">
   <si>
     <t>Speed</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>Bow</t>
+  </si>
+  <si>
+    <t>Normal Arrow</t>
   </si>
 </sst>
 </file>
@@ -1154,9 +1157,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2252,13 +2257,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
         <v>149</v>
       </c>
       <c r="D54">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>150</v>
@@ -2267,10 +2272,10 @@
         <v>150</v>
       </c>
       <c r="G54" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H54" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="I54" t="s">
         <v>62</v>
@@ -2281,13 +2286,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
         <v>149</v>
       </c>
       <c r="D55">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E55" t="s">
         <v>150</v>
@@ -2296,10 +2301,10 @@
         <v>150</v>
       </c>
       <c r="G55" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I55" t="s">
         <v>62</v>
@@ -2310,13 +2315,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
         <v>149</v>
       </c>
       <c r="D56">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E56" t="s">
         <v>150</v>
@@ -2325,10 +2330,10 @@
         <v>150</v>
       </c>
       <c r="G56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I56" t="s">
         <v>62</v>
@@ -2339,13 +2344,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
         <v>149</v>
       </c>
       <c r="D57">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E57" t="s">
         <v>150</v>
@@ -2354,10 +2359,10 @@
         <v>150</v>
       </c>
       <c r="G57" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I57" t="s">
         <v>62</v>
@@ -2368,13 +2373,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
         <v>149</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E58" t="s">
         <v>150</v>
@@ -2383,15 +2388,44 @@
         <v>150</v>
       </c>
       <c r="G58" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" t="s">
+        <v>136</v>
+      </c>
+      <c r="I58" t="s">
+        <v>62</v>
+      </c>
+      <c r="J58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" t="s">
         <v>140</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H59" t="s">
         <v>147</v>
       </c>
-      <c r="I58" t="s">
-        <v>62</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="I59" t="s">
+        <v>62</v>
+      </c>
+      <c r="J59" t="s">
         <v>150</v>
       </c>
     </row>

--- a/Story/Balancing.xlsx
+++ b/Story/Balancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-GitKraken\Death is not the End\death-is-not-the-end\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9E39B1-2DDE-44E6-AD15-A40445173ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3871B94-930E-43D4-AA03-D1AF81667E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="154">
   <si>
     <t>Speed</t>
   </si>
@@ -486,6 +486,12 @@
   </si>
   <si>
     <t>Normal Arrow</t>
+  </si>
+  <si>
+    <t>Crossbow</t>
+  </si>
+  <si>
+    <t>Arrow</t>
   </si>
 </sst>
 </file>
@@ -1157,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2071,43 +2077,40 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44">
+        <v>0.8</v>
+      </c>
+      <c r="F44">
+        <v>20000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46">
-        <v>15</v>
-      </c>
-      <c r="E46">
-        <v>1.2</v>
-      </c>
-      <c r="F46">
-        <v>20000</v>
-      </c>
-      <c r="G46" t="s">
-        <v>80</v>
-      </c>
-      <c r="H46" t="s">
-        <v>130</v>
-      </c>
-      <c r="I46" t="s">
-        <v>62</v>
-      </c>
-      <c r="J46" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
         <v>82</v>
@@ -2122,10 +2125,10 @@
         <v>20000</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I47" t="s">
         <v>62</v>
@@ -2136,7 +2139,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
         <v>82</v>
@@ -2151,10 +2154,10 @@
         <v>20000</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I48" t="s">
         <v>62</v>
@@ -2165,7 +2168,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
         <v>82</v>
@@ -2180,10 +2183,10 @@
         <v>20000</v>
       </c>
       <c r="G49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H49" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I49" t="s">
         <v>62</v>
@@ -2194,25 +2197,25 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
         <v>82</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F50">
         <v>20000</v>
       </c>
       <c r="G50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I50" t="s">
         <v>62</v>
@@ -2223,76 +2226,76 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F51">
         <v>20000</v>
       </c>
       <c r="G51" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51" t="s">
+        <v>138</v>
+      </c>
+      <c r="I51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>20000</v>
+      </c>
+      <c r="G52" t="s">
         <v>140</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H52" t="s">
         <v>147</v>
       </c>
-      <c r="I51" t="s">
-        <v>62</v>
-      </c>
-      <c r="J51">
+      <c r="I52" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>150</v>
-      </c>
-      <c r="F54" t="s">
-        <v>150</v>
-      </c>
-      <c r="G54" t="s">
-        <v>62</v>
-      </c>
-      <c r="H54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I54" t="s">
-        <v>62</v>
-      </c>
-      <c r="J54" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
         <v>149</v>
       </c>
       <c r="D55">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>150</v>
@@ -2301,10 +2304,10 @@
         <v>150</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H55" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="I55" t="s">
         <v>62</v>
@@ -2315,13 +2318,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
         <v>149</v>
       </c>
       <c r="D56">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E56" t="s">
         <v>150</v>
@@ -2330,10 +2333,10 @@
         <v>150</v>
       </c>
       <c r="G56" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I56" t="s">
         <v>62</v>
@@ -2344,13 +2347,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
         <v>149</v>
       </c>
       <c r="D57">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E57" t="s">
         <v>150</v>
@@ -2359,10 +2362,10 @@
         <v>150</v>
       </c>
       <c r="G57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I57" t="s">
         <v>62</v>
@@ -2373,13 +2376,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
         <v>149</v>
       </c>
       <c r="D58">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E58" t="s">
         <v>150</v>
@@ -2388,10 +2391,10 @@
         <v>150</v>
       </c>
       <c r="G58" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H58" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I58" t="s">
         <v>62</v>
@@ -2402,13 +2405,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
         <v>149</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E59" t="s">
         <v>150</v>
@@ -2417,15 +2420,44 @@
         <v>150</v>
       </c>
       <c r="G59" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" t="s">
+        <v>62</v>
+      </c>
+      <c r="J59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" t="s">
         <v>140</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H60" t="s">
         <v>147</v>
       </c>
-      <c r="I59" t="s">
-        <v>62</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="I60" t="s">
+        <v>62</v>
+      </c>
+      <c r="J60" t="s">
         <v>150</v>
       </c>
     </row>

--- a/Story/Balancing.xlsx
+++ b/Story/Balancing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-GitKraken\Death is not the End\death-is-not-the-end\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3871B94-930E-43D4-AA03-D1AF81667E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D73494-82E0-4509-B954-76C6F9510D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="158">
   <si>
     <t>Speed</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Same</t>
-  </si>
-  <si>
     <t>here</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>Ability</t>
   </si>
   <si>
-    <t>Superjump</t>
-  </si>
-  <si>
     <t>Bloodrush</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>Movementspeed up to 30000, damage up to 50 for 3 seconds, every 3 succesful hits</t>
   </si>
   <si>
-    <t>Super high jump with damage up to 20</t>
-  </si>
-  <si>
     <t>Weapon Name</t>
   </si>
   <si>
@@ -308,9 +299,6 @@
     <t>Attack Speed (How many attacks in one second)</t>
   </si>
   <si>
-    <t>Damag (multiplier with Base Dmg)</t>
-  </si>
-  <si>
     <t>Cooldwon Ability</t>
   </si>
   <si>
@@ -492,6 +480,30 @@
   </si>
   <si>
     <t>Arrow</t>
+  </si>
+  <si>
+    <t>Armor Name</t>
+  </si>
+  <si>
+    <t>Type of Armor</t>
+  </si>
+  <si>
+    <t>Damage (multiplier with Base Dmg)</t>
+  </si>
+  <si>
+    <t>Defensive Power</t>
+  </si>
+  <si>
+    <t>Function of DP</t>
+  </si>
+  <si>
+    <t>Rotten Amor</t>
+  </si>
+  <si>
+    <t>Rotten Shirt</t>
+  </si>
+  <si>
+    <t>Chestplate</t>
   </si>
 </sst>
 </file>
@@ -552,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -567,6 +579,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -884,7 +897,7 @@
   <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -922,7 +935,7 @@
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +953,7 @@
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -963,16 +976,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -981,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>9</v>
@@ -1027,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>14</v>
@@ -1056,7 +1069,7 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>25000</v>
@@ -1071,10 +1084,10 @@
         <v>50</v>
       </c>
       <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -1165,62 +1178,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="E5">
         <v>1</v>
       </c>
@@ -1228,24 +1239,24 @@
         <v>22000</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1257,28 +1268,26 @@
         <v>18000</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D7" s="9"/>
       <c r="E7">
         <v>1.5</v>
       </c>
@@ -1286,28 +1295,26 @@
         <v>24000</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8">
         <v>1.3</v>
       </c>
@@ -1315,24 +1322,24 @@
         <v>23000</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1344,13 +1351,13 @@
         <v>22000</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J9">
         <v>20000</v>
@@ -1358,15 +1365,15 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1378,24 +1385,24 @@
         <v>21000</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1407,24 +1414,24 @@
         <v>17000</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1436,24 +1443,24 @@
         <v>23000</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1465,24 +1472,24 @@
         <v>22000</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1494,13 +1501,13 @@
         <v>21000</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J16">
         <v>25000</v>
@@ -1508,15 +1515,15 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1528,24 +1535,24 @@
         <v>18000</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -1557,24 +1564,24 @@
         <v>14000</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1586,24 +1593,24 @@
         <v>20000</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -1615,24 +1622,24 @@
         <v>19000</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -1644,13 +1651,13 @@
         <v>18000</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J23">
         <v>20000</v>
@@ -1658,15 +1665,15 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>10</v>
@@ -1678,24 +1685,24 @@
         <v>20000</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27">
         <v>14</v>
@@ -1707,24 +1714,24 @@
         <v>16000</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -1736,24 +1743,24 @@
         <v>22000</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -1765,24 +1772,24 @@
         <v>21000</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D30">
         <v>12</v>
@@ -1794,13 +1801,13 @@
         <v>20000</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J30">
         <v>30000</v>
@@ -1808,15 +1815,15 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -1828,13 +1835,13 @@
         <v>19000</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J33">
         <v>15000</v>
@@ -1842,10 +1849,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D34">
         <v>15</v>
@@ -1857,13 +1864,13 @@
         <v>19000</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J34">
         <v>20000</v>
@@ -1871,10 +1878,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -1886,29 +1893,29 @@
         <v>18000</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D38">
         <v>11</v>
@@ -1920,24 +1927,24 @@
         <v>22000</v>
       </c>
       <c r="G38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -1949,24 +1956,24 @@
         <v>23000</v>
       </c>
       <c r="G39" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I39" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1978,24 +1985,24 @@
         <v>20000</v>
       </c>
       <c r="G40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D41">
         <v>7</v>
@@ -2007,13 +2014,13 @@
         <v>20000</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J41">
         <v>20000</v>
@@ -2021,10 +2028,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -2036,24 +2043,24 @@
         <v>21000</v>
       </c>
       <c r="G42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D43">
         <v>8</v>
@@ -2065,24 +2072,24 @@
         <v>25000</v>
       </c>
       <c r="G43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H43" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E44">
         <v>0.8</v>
@@ -2091,13 +2098,13 @@
         <v>20000</v>
       </c>
       <c r="G44" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H44" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J44">
         <v>25000</v>
@@ -2105,15 +2112,15 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D47">
         <v>15</v>
@@ -2125,24 +2132,24 @@
         <v>20000</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D48">
         <v>15</v>
@@ -2154,24 +2161,24 @@
         <v>20000</v>
       </c>
       <c r="G48" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H48" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <v>15</v>
@@ -2183,24 +2190,24 @@
         <v>20000</v>
       </c>
       <c r="G49" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H49" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D50">
         <v>15</v>
@@ -2212,24 +2219,24 @@
         <v>20000</v>
       </c>
       <c r="G50" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H50" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D51">
         <v>20</v>
@@ -2241,24 +2248,24 @@
         <v>20000</v>
       </c>
       <c r="G51" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H51" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -2270,13 +2277,13 @@
         <v>20000</v>
       </c>
       <c r="G52" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H52" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J52">
         <v>30000</v>
@@ -2284,181 +2291,181 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F55" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J55" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D56">
         <v>1.4</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D57">
         <v>1.2</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F57" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G57" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H57" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I57" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J57" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" t="s">
         <v>145</v>
-      </c>
-      <c r="C58" t="s">
-        <v>149</v>
       </c>
       <c r="D58">
         <v>1.3</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G58" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I58" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J58" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D59">
         <v>1.5</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F59" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G59" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H59" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J59" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F60" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G60" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H60" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2473,25 +2480,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
@@ -2511,10 +2543,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Story/Balancing.xlsx
+++ b/Story/Balancing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-GitKraken\Death is not the End\death-is-not-the-end\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D73494-82E0-4509-B954-76C6F9510D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768AC11C-E9A4-4F20-80FF-A6C1DF116692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="184">
   <si>
     <t>Speed</t>
   </si>
@@ -95,12 +95,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>And</t>
-  </si>
-  <si>
     <t>Is Longrange</t>
   </si>
   <si>
@@ -494,9 +488,6 @@
     <t>Defensive Power</t>
   </si>
   <si>
-    <t>Function of DP</t>
-  </si>
-  <si>
     <t>Rotten Amor</t>
   </si>
   <si>
@@ -504,6 +495,93 @@
   </si>
   <si>
     <t>Chestplate</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Small Pot</t>
+  </si>
+  <si>
+    <t>Huge Pot</t>
+  </si>
+  <si>
+    <t>Mana Regain</t>
+  </si>
+  <si>
+    <t>Health Regain</t>
+  </si>
+  <si>
+    <t>Normal Pot</t>
+  </si>
+  <si>
+    <t>Small Bottle</t>
+  </si>
+  <si>
+    <t>Normal Bottle</t>
+  </si>
+  <si>
+    <t>Huge Bottle</t>
+  </si>
+  <si>
+    <t>Regains 50 Health</t>
+  </si>
+  <si>
+    <t>Regains 50 Mana</t>
+  </si>
+  <si>
+    <t>Regains 200 Mana</t>
+  </si>
+  <si>
+    <t>Regains 500 Mana</t>
+  </si>
+  <si>
+    <t>Regains 200 Health</t>
+  </si>
+  <si>
+    <t>Regains 500 Health</t>
+  </si>
+  <si>
+    <t>150 Credits</t>
+  </si>
+  <si>
+    <t>1500 Credits</t>
+  </si>
+  <si>
+    <t>15000 Credits</t>
+  </si>
+  <si>
+    <t>Boost Items</t>
+  </si>
+  <si>
+    <t>Multiplies Damage by 1,5</t>
+  </si>
+  <si>
+    <t>Divides Enemy Damage by 1,5</t>
+  </si>
+  <si>
+    <t>Damage Orb</t>
+  </si>
+  <si>
+    <t>Defense Orb</t>
+  </si>
+  <si>
+    <t>Side effect</t>
+  </si>
+  <si>
+    <t>12000 Credits</t>
+  </si>
+  <si>
+    <t>18000 Credits</t>
+  </si>
+  <si>
+    <t>player takes 0,083 dps</t>
   </si>
 </sst>
 </file>
@@ -935,7 +1013,7 @@
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -976,16 +1054,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -994,7 +1072,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>9</v>
@@ -1040,10 +1118,10 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>14</v>
@@ -1069,7 +1147,7 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>25000</v>
@@ -1084,10 +1162,10 @@
         <v>50</v>
       </c>
       <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -1178,58 +1256,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="92" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5">
@@ -1239,24 +1327,24 @@
         <v>22000</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1268,24 +1356,24 @@
         <v>18000</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7">
@@ -1295,24 +1383,24 @@
         <v>24000</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8">
@@ -1322,24 +1410,24 @@
         <v>23000</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1351,13 +1439,13 @@
         <v>22000</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J9">
         <v>20000</v>
@@ -1365,15 +1453,15 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1385,24 +1473,24 @@
         <v>21000</v>
       </c>
       <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
         <v>60</v>
       </c>
-      <c r="H12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" t="s">
-        <v>62</v>
-      </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1414,24 +1502,24 @@
         <v>17000</v>
       </c>
       <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
         <v>61</v>
       </c>
-      <c r="H13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" t="s">
-        <v>63</v>
-      </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1443,24 +1531,24 @@
         <v>23000</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1472,24 +1560,24 @@
         <v>22000</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1501,13 +1589,13 @@
         <v>21000</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J16">
         <v>25000</v>
@@ -1515,15 +1603,15 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1535,24 +1623,24 @@
         <v>18000</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -1564,24 +1652,24 @@
         <v>14000</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1593,24 +1681,24 @@
         <v>20000</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -1622,24 +1710,24 @@
         <v>19000</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -1651,13 +1739,13 @@
         <v>18000</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J23">
         <v>20000</v>
@@ -1665,15 +1753,15 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26">
         <v>10</v>
@@ -1685,24 +1773,24 @@
         <v>20000</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <v>14</v>
@@ -1714,24 +1802,24 @@
         <v>16000</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -1743,24 +1831,24 @@
         <v>22000</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -1772,24 +1860,24 @@
         <v>21000</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D30">
         <v>12</v>
@@ -1801,13 +1889,13 @@
         <v>20000</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J30">
         <v>30000</v>
@@ -1815,15 +1903,15 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -1835,13 +1923,13 @@
         <v>19000</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J33">
         <v>15000</v>
@@ -1849,10 +1937,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D34">
         <v>15</v>
@@ -1864,13 +1952,13 @@
         <v>19000</v>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J34">
         <v>20000</v>
@@ -1878,10 +1966,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -1893,29 +1981,29 @@
         <v>18000</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D38">
         <v>11</v>
@@ -1927,24 +2015,24 @@
         <v>22000</v>
       </c>
       <c r="G38" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" t="s">
         <v>103</v>
       </c>
-      <c r="H38" t="s">
-        <v>104</v>
-      </c>
-      <c r="I38" t="s">
-        <v>105</v>
-      </c>
       <c r="J38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
         <v>100</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -1956,24 +2044,24 @@
         <v>23000</v>
       </c>
       <c r="G39" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" t="s">
         <v>103</v>
       </c>
-      <c r="H39" t="s">
-        <v>106</v>
-      </c>
-      <c r="I39" t="s">
-        <v>105</v>
-      </c>
       <c r="J39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1985,24 +2073,24 @@
         <v>20000</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41">
         <v>7</v>
@@ -2014,13 +2102,13 @@
         <v>20000</v>
       </c>
       <c r="G41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J41">
         <v>20000</v>
@@ -2028,10 +2116,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -2043,24 +2131,24 @@
         <v>21000</v>
       </c>
       <c r="G42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" t="s">
         <v>113</v>
       </c>
-      <c r="H42" t="s">
-        <v>115</v>
-      </c>
       <c r="I42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D43">
         <v>8</v>
@@ -2072,24 +2160,24 @@
         <v>25000</v>
       </c>
       <c r="G43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" t="s">
         <v>117</v>
       </c>
-      <c r="H43" t="s">
-        <v>118</v>
-      </c>
-      <c r="I43" t="s">
-        <v>119</v>
-      </c>
       <c r="J43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>0.8</v>
@@ -2098,13 +2186,13 @@
         <v>20000</v>
       </c>
       <c r="G44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J44">
         <v>25000</v>
@@ -2112,15 +2200,15 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D47">
         <v>15</v>
@@ -2132,24 +2220,24 @@
         <v>20000</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D48">
         <v>15</v>
@@ -2161,24 +2249,24 @@
         <v>20000</v>
       </c>
       <c r="G48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D49">
         <v>15</v>
@@ -2190,24 +2278,24 @@
         <v>20000</v>
       </c>
       <c r="G49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D50">
         <v>15</v>
@@ -2219,24 +2307,24 @@
         <v>20000</v>
       </c>
       <c r="G50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D51">
         <v>20</v>
@@ -2248,24 +2336,24 @@
         <v>20000</v>
       </c>
       <c r="G51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -2277,13 +2365,13 @@
         <v>20000</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J52">
         <v>30000</v>
@@ -2291,181 +2379,181 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D56">
         <v>1.4</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D57">
         <v>1.2</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D58">
         <v>1.3</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D59">
         <v>1.5</v>
       </c>
       <c r="E59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G59" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2480,44 +2568,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>153</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C5" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" t="s">
-        <v>157</v>
       </c>
       <c r="D5" s="12"/>
     </row>
@@ -2533,25 +2622,167 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
